--- a/PalaDog_Project/Assets/Resources/DT_WaveTable_xl.xlsx
+++ b/PalaDog_Project/Assets/Resources/DT_WaveTable_xl.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unity\PalaDog-Clone-Project\PalaDog_Project\Assets\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haedo\OneDrive\문서\GitHub\PalaDog-Clone-Project\PalaDog_Project\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C3077A-1344-4EE6-B0E0-B544DB9401FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DA17F1-67C5-4579-B8FB-6B6027E834F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="2520" windowWidth="24315" windowHeight="12645" xr2:uid="{6C825715-D501-4445-8D7C-D095D2FEBEED}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6C825715-D501-4445-8D7C-D095D2FEBEED}"/>
   </bookViews>
   <sheets>
     <sheet name="DT_WaveTable" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="160">
   <si>
     <t>DT_WaveTable</t>
   </si>
@@ -130,9 +130,6 @@
     <t>스테이지1_웨이브2_001</t>
   </si>
   <si>
-    <t>스테이지1_웨이브2_002</t>
-  </si>
-  <si>
     <t>Stage1_Wave3_001</t>
   </si>
   <si>
@@ -145,25 +142,364 @@
     <t>스테이지1_웨이브3_002</t>
   </si>
   <si>
-    <t>2스</t>
-  </si>
-  <si>
-    <t>2스1</t>
-  </si>
-  <si>
-    <t>2스2</t>
-  </si>
-  <si>
-    <t>2스3</t>
-  </si>
-  <si>
-    <t>Stage1_Wave3_003</t>
-  </si>
-  <si>
-    <t>스테이지1_웨이브3_003</t>
-  </si>
-  <si>
     <t>Boss</t>
+  </si>
+  <si>
+    <t>Stage2_Wave1_001</t>
+  </si>
+  <si>
+    <t>스테이지2_웨이브1_001</t>
+  </si>
+  <si>
+    <t>Stage2_Wave1_002</t>
+  </si>
+  <si>
+    <t>스테이지2_웨이브1_002</t>
+  </si>
+  <si>
+    <t>Stage2_Wave2_001</t>
+  </si>
+  <si>
+    <t>스테이지2_웨이브2_001</t>
+  </si>
+  <si>
+    <t>Stage2_Wave3_001</t>
+  </si>
+  <si>
+    <t>스테이지2_웨이브3_001</t>
+  </si>
+  <si>
+    <t>Stage2_Wave3_002</t>
+  </si>
+  <si>
+    <t>스테이지2_웨이브3_002</t>
+  </si>
+  <si>
+    <t>스테이지2_웨이브3_003</t>
+  </si>
+  <si>
+    <t>Stage3_Wave1_001</t>
+  </si>
+  <si>
+    <t>스테이지3_웨이브1_001</t>
+  </si>
+  <si>
+    <t>Stage3_Wave1_002</t>
+  </si>
+  <si>
+    <t>스테이지3_웨이브1_002</t>
+  </si>
+  <si>
+    <t>Stage3_Wave2_001</t>
+  </si>
+  <si>
+    <t>스테이지3_웨이브2_001</t>
+  </si>
+  <si>
+    <t>Stage3_Wave2_002</t>
+  </si>
+  <si>
+    <t>스테이지3_웨이브2_002</t>
+  </si>
+  <si>
+    <t>Stage3_Wave3_001</t>
+  </si>
+  <si>
+    <t>스테이지3_웨이브3_001</t>
+  </si>
+  <si>
+    <t>Stage3_Wave3_002</t>
+  </si>
+  <si>
+    <t>스테이지3_웨이브3_002</t>
+  </si>
+  <si>
+    <t>Stage4_Wave1_001</t>
+  </si>
+  <si>
+    <t>스테이지4_웨이브1_001</t>
+  </si>
+  <si>
+    <t>Stage4_Wave1_002</t>
+  </si>
+  <si>
+    <t>스테이지4_웨이브1_002</t>
+  </si>
+  <si>
+    <t>Stage4_Wave2_001</t>
+  </si>
+  <si>
+    <t>스테이지4_웨이브2_001</t>
+  </si>
+  <si>
+    <t>Stage4_Wave2_002</t>
+  </si>
+  <si>
+    <t>스테이지4_웨이브2_002</t>
+  </si>
+  <si>
+    <t>Stage4_Wave3_001</t>
+  </si>
+  <si>
+    <t>스테이지4_웨이브3_001</t>
+  </si>
+  <si>
+    <t>Stage4_Wave3_002</t>
+  </si>
+  <si>
+    <t>스테이지4_웨이브3_002</t>
+  </si>
+  <si>
+    <t>Stage5_Wave1_001</t>
+  </si>
+  <si>
+    <t>스테이지5_웨이브1_001</t>
+  </si>
+  <si>
+    <t>Stage5_Wave1_002</t>
+  </si>
+  <si>
+    <t>스테이지5_웨이브1_002</t>
+  </si>
+  <si>
+    <t>Stage5_Wave2_001</t>
+  </si>
+  <si>
+    <t>스테이지5_웨이브2_001</t>
+  </si>
+  <si>
+    <t>Stage5_Wave2_002</t>
+  </si>
+  <si>
+    <t>스테이지5_웨이브2_002</t>
+  </si>
+  <si>
+    <t>Stage5_Wave3_001</t>
+  </si>
+  <si>
+    <t>스테이지5_웨이브3_001</t>
+  </si>
+  <si>
+    <t>Stage5_Wave3_002</t>
+  </si>
+  <si>
+    <t>스테이지5_웨이브3_002</t>
+  </si>
+  <si>
+    <t>Stage5_Wave4_001</t>
+  </si>
+  <si>
+    <t>스테이지5_웨이브4_001</t>
+  </si>
+  <si>
+    <t>Stage5_Wave4_002</t>
+  </si>
+  <si>
+    <t>스테이지5_웨이브4_002</t>
+  </si>
+  <si>
+    <t>Stage5_Wave4_003</t>
+  </si>
+  <si>
+    <t>스테이지5_웨이브4_003</t>
+  </si>
+  <si>
+    <t>Stage6_Wave1_001</t>
+  </si>
+  <si>
+    <t>스테이지6_웨이브1_001</t>
+  </si>
+  <si>
+    <t>Stage6_Wave1_002</t>
+  </si>
+  <si>
+    <t>스테이지6_웨이브1_002</t>
+  </si>
+  <si>
+    <t>Stage6_Wave2_001</t>
+  </si>
+  <si>
+    <t>스테이지6_웨이브2_001</t>
+  </si>
+  <si>
+    <t>Stage6_Wave2_002</t>
+  </si>
+  <si>
+    <t>스테이지6_웨이브2_002</t>
+  </si>
+  <si>
+    <t>Stage6_Wave3_001</t>
+  </si>
+  <si>
+    <t>스테이지6_웨이브3_001</t>
+  </si>
+  <si>
+    <t>Stage6_Wave3_002</t>
+  </si>
+  <si>
+    <t>스테이지6_웨이브3_002</t>
+  </si>
+  <si>
+    <t>Stage7_Wave1_001</t>
+  </si>
+  <si>
+    <t>스테이지7_웨이브1_001</t>
+  </si>
+  <si>
+    <t>Stage7_Wave1_002</t>
+  </si>
+  <si>
+    <t>스테이지7_웨이브1_002</t>
+  </si>
+  <si>
+    <t>Stage7_Wave2_001</t>
+  </si>
+  <si>
+    <t>스테이지7_웨이브2_001</t>
+  </si>
+  <si>
+    <t>Stage7_Wave2_002</t>
+  </si>
+  <si>
+    <t>스테이지7_웨이브2_002</t>
+  </si>
+  <si>
+    <t>Stage7_Wave3_001</t>
+  </si>
+  <si>
+    <t>스테이지7_웨이브3_001</t>
+  </si>
+  <si>
+    <t>Stage7_Wave3_002</t>
+  </si>
+  <si>
+    <t>스테이지7_웨이브3_002</t>
+  </si>
+  <si>
+    <t>Stage8_Wave1_001</t>
+  </si>
+  <si>
+    <t>스테이지8_웨이브1_001</t>
+  </si>
+  <si>
+    <t>Stage8_Wave1_002</t>
+  </si>
+  <si>
+    <t>스테이지8_웨이브1_002</t>
+  </si>
+  <si>
+    <t>Stage8_Wave2_001</t>
+  </si>
+  <si>
+    <t>스테이지8_웨이브2_001</t>
+  </si>
+  <si>
+    <t>Stage8_Wave2_002</t>
+  </si>
+  <si>
+    <t>스테이지8_웨이브2_002</t>
+  </si>
+  <si>
+    <t>Stage8_Wave3_001</t>
+  </si>
+  <si>
+    <t>스테이지8_웨이브3_001</t>
+  </si>
+  <si>
+    <t>Stage8_Wave3_002</t>
+  </si>
+  <si>
+    <t>스테이지8_웨이브3_002</t>
+  </si>
+  <si>
+    <t>Stage9_Wave1_001</t>
+  </si>
+  <si>
+    <t>스테이지9_웨이브1_001</t>
+  </si>
+  <si>
+    <t>Stage9_Wave1_002</t>
+  </si>
+  <si>
+    <t>스테이지9_웨이브1_002</t>
+  </si>
+  <si>
+    <t>Stage9_Wave2_001</t>
+  </si>
+  <si>
+    <t>스테이지9_웨이브2_001</t>
+  </si>
+  <si>
+    <t>Stage9_Wave2_002</t>
+  </si>
+  <si>
+    <t>스테이지9_웨이브2_002</t>
+  </si>
+  <si>
+    <t>Stage9_Wave3_001</t>
+  </si>
+  <si>
+    <t>스테이지9_웨이브3_001</t>
+  </si>
+  <si>
+    <t>Stage9_Wave3_002</t>
+  </si>
+  <si>
+    <t>스테이지9_웨이브3_002</t>
+  </si>
+  <si>
+    <t>Stage10_Wave1_001</t>
+  </si>
+  <si>
+    <t>스테이지10_웨이브1_001</t>
+  </si>
+  <si>
+    <t>Stage10_Wave1_002</t>
+  </si>
+  <si>
+    <t>스테이지10_웨이브1_002</t>
+  </si>
+  <si>
+    <t>Stage10_Wave2_001</t>
+  </si>
+  <si>
+    <t>스테이지10_웨이브2_001</t>
+  </si>
+  <si>
+    <t>Stage10_Wave2_002</t>
+  </si>
+  <si>
+    <t>스테이지10_웨이브2_002</t>
+  </si>
+  <si>
+    <t>Stage10_Wave3_001</t>
+  </si>
+  <si>
+    <t>스테이지10_웨이브3_001</t>
+  </si>
+  <si>
+    <t>Stage10_Wave3_002</t>
+  </si>
+  <si>
+    <t>스테이지10_웨이브3_002</t>
+  </si>
+  <si>
+    <t>Stage10_Wave4_001</t>
+  </si>
+  <si>
+    <t>스테이지10_웨이브4_001</t>
+  </si>
+  <si>
+    <t>Stage10_Wave4_002</t>
+  </si>
+  <si>
+    <t>스테이지10_웨이브4_002</t>
+  </si>
+  <si>
+    <t>Stage10_Wave4_003</t>
+  </si>
+  <si>
+    <t>스테이지10_웨이브4_003</t>
   </si>
 </sst>
 </file>
@@ -1135,20 +1471,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526F877E-5F37-45D9-8E49-19EF3C1B1B3C}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="18.4140625" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1180,42 +1522,42 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1247,7 +1589,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1279,9 +1621,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>10111</v>
+        <v>11111</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -1302,670 +1644,586 @@
         <v>33</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I12">
-        <v>10011</v>
+        <v>10111</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13">
+        <v>11121</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>1012</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13">
+        <v>16</v>
+      </c>
+      <c r="I13">
+        <v>10121</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>11131</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14">
+        <v>1013</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14">
+        <v>12</v>
+      </c>
+      <c r="I14">
+        <v>10111</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>11132</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15">
+        <v>1013</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15">
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <v>10121</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>12111</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19">
+        <v>1011</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19">
+        <v>12</v>
+      </c>
+      <c r="I19">
         <v>10112</v>
       </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13">
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>12112</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20">
         <v>1011</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13">
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20">
         <v>6</v>
       </c>
-      <c r="I13">
-        <v>10012</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>10121</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14">
+      <c r="I20">
+        <v>10122</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>12121</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21">
         <v>1012</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14">
-        <v>10</v>
-      </c>
-      <c r="I14">
-        <v>10011</v>
-      </c>
-      <c r="J14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>10122</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15">
-        <v>1012</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15">
-        <v>15</v>
-      </c>
-      <c r="I15">
-        <v>10012</v>
-      </c>
-      <c r="J15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>10131</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16">
-        <v>1013</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>3</v>
-      </c>
-      <c r="G16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16">
-        <v>3</v>
-      </c>
-      <c r="I16">
-        <v>10012</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>10132</v>
-      </c>
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17">
-        <v>1013</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
-      <c r="G17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17">
-        <v>3</v>
-      </c>
-      <c r="I17">
-        <v>10011</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>10141</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18">
-        <v>1013</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>4</v>
-      </c>
-      <c r="G18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18">
-        <v>10</v>
-      </c>
-      <c r="I18">
-        <v>10012</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>10142</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19">
-        <v>1013</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>4</v>
-      </c>
-      <c r="G19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19">
-        <v>15</v>
-      </c>
-      <c r="I19">
-        <v>10011</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20111</v>
-      </c>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21">
-        <v>1011</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" t="s">
         <v>33</v>
       </c>
       <c r="H21">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I21">
-        <v>10011</v>
+        <v>10112</v>
       </c>
       <c r="J21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>20112</v>
+        <v>12131</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D22">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G22" t="s">
         <v>33</v>
       </c>
       <c r="H22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I22">
-        <v>10012</v>
+        <v>10112</v>
       </c>
       <c r="J22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>20121</v>
+        <v>12132</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D23">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23" t="s">
         <v>33</v>
       </c>
       <c r="H23">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I23">
-        <v>10011</v>
+        <v>10122</v>
       </c>
       <c r="J23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>20122</v>
+        <v>12133</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D24">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
       <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24">
+        <v>10</v>
+      </c>
+      <c r="I24">
+        <v>10113</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>13111</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27">
+        <v>1011</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27">
+        <v>6</v>
+      </c>
+      <c r="I27">
+        <v>10111</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>13112</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28">
+        <v>1011</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28">
+        <v>7</v>
+      </c>
+      <c r="I28">
+        <v>10121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>13121</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29">
+        <v>1012</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
         <v>2</v>
       </c>
-      <c r="G24" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24">
+      <c r="G29" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29">
+        <v>10</v>
+      </c>
+      <c r="I29">
+        <v>10111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>13122</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30">
+        <v>1012</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30">
         <v>15</v>
       </c>
-      <c r="I24">
-        <v>10012</v>
-      </c>
-      <c r="J24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>20131</v>
-      </c>
-      <c r="B25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25">
+      <c r="I30">
+        <v>10121</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>13131</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31">
         <v>1013</v>
       </c>
-      <c r="E25">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="I31">
+        <v>10121</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>13132</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32">
+        <v>1013</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32">
+        <v>6</v>
+      </c>
+      <c r="I32">
+        <v>10111</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>14111</v>
+      </c>
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36">
+        <v>1011</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
+      <c r="I36">
+        <v>10111</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>14112</v>
+      </c>
+      <c r="B37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37">
+        <v>1011</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37">
+        <v>6</v>
+      </c>
+      <c r="I37">
+        <v>10121</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>14121</v>
+      </c>
+      <c r="B38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38">
+        <v>1012</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38">
         <v>2</v>
-      </c>
-      <c r="F25">
-        <v>3</v>
-      </c>
-      <c r="G25" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25">
-        <v>3</v>
-      </c>
-      <c r="I25">
-        <v>10012</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>20132</v>
-      </c>
-      <c r="B26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26">
-        <v>1013</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>3</v>
-      </c>
-      <c r="G26" t="s">
-        <v>33</v>
-      </c>
-      <c r="H26">
-        <v>3</v>
-      </c>
-      <c r="I26">
-        <v>10011</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>20143</v>
-      </c>
-      <c r="B29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29">
-        <v>1013</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>4</v>
-      </c>
-      <c r="G29" t="s">
-        <v>47</v>
-      </c>
-      <c r="H29">
-        <v>99999999</v>
-      </c>
-      <c r="I29">
-        <v>10013</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>30111</v>
-      </c>
-      <c r="B32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32">
-        <v>1011</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="s">
-        <v>33</v>
-      </c>
-      <c r="H32">
-        <v>5</v>
-      </c>
-      <c r="I32">
-        <v>10021</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>30112</v>
-      </c>
-      <c r="B33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33">
-        <v>1011</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="s">
-        <v>33</v>
-      </c>
-      <c r="H33">
-        <v>6</v>
-      </c>
-      <c r="I33">
-        <v>10022</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>30121</v>
-      </c>
-      <c r="B34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34">
-        <v>1012</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>2</v>
-      </c>
-      <c r="G34" t="s">
-        <v>33</v>
-      </c>
-      <c r="H34">
-        <v>10</v>
-      </c>
-      <c r="I34">
-        <v>10021</v>
-      </c>
-      <c r="J34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>30122</v>
-      </c>
-      <c r="B35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35">
-        <v>1012</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>2</v>
-      </c>
-      <c r="G35" t="s">
-        <v>33</v>
-      </c>
-      <c r="H35">
-        <v>15</v>
-      </c>
-      <c r="I35">
-        <v>10022</v>
-      </c>
-      <c r="J35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>30131</v>
-      </c>
-      <c r="B36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36">
-        <v>1013</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>3</v>
-      </c>
-      <c r="G36" t="s">
-        <v>33</v>
-      </c>
-      <c r="H36">
-        <v>3</v>
-      </c>
-      <c r="I36">
-        <v>10022</v>
-      </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>30132</v>
-      </c>
-      <c r="B37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37">
-        <v>1013</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>3</v>
-      </c>
-      <c r="G37" t="s">
-        <v>33</v>
-      </c>
-      <c r="H37">
-        <v>3</v>
-      </c>
-      <c r="I37">
-        <v>10021</v>
-      </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>30141</v>
-      </c>
-      <c r="B38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38">
-        <v>1013</v>
-      </c>
-      <c r="E38">
-        <v>3</v>
-      </c>
-      <c r="F38">
-        <v>4</v>
       </c>
       <c r="G38" t="s">
         <v>33</v>
@@ -1974,30 +2232,27 @@
         <v>10</v>
       </c>
       <c r="I38">
-        <v>10022</v>
-      </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+        <v>10111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>30142</v>
+        <v>14122</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="D39">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G39" t="s">
         <v>33</v>
@@ -2006,196 +2261,1363 @@
         <v>15</v>
       </c>
       <c r="I39">
-        <v>10021</v>
+        <v>10121</v>
       </c>
       <c r="J39">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>14131</v>
+      </c>
+      <c r="B40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40">
+        <v>1013</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <v>10121</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>40111</v>
+        <v>14132</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="D41">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="E41">
         <v>4</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G41" t="s">
         <v>33</v>
       </c>
       <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <v>10111</v>
+      </c>
+      <c r="J41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>15111</v>
+      </c>
+      <c r="B44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44">
+        <v>1011</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44">
+        <v>5</v>
+      </c>
+      <c r="I44">
+        <v>10111</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>15112</v>
+      </c>
+      <c r="B45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45">
+        <v>1011</v>
+      </c>
+      <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
+        <v>33</v>
+      </c>
+      <c r="H45">
+        <v>6</v>
+      </c>
+      <c r="I45">
+        <v>10121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>15121</v>
+      </c>
+      <c r="B46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46">
+        <v>1012</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46" t="s">
+        <v>33</v>
+      </c>
+      <c r="H46">
         <v>10</v>
       </c>
-      <c r="I41">
-        <v>10021</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>40112</v>
-      </c>
-      <c r="D42">
+      <c r="I46">
+        <v>10111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>15122</v>
+      </c>
+      <c r="B47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47">
+        <v>1012</v>
+      </c>
+      <c r="E47">
+        <v>5</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47" t="s">
+        <v>33</v>
+      </c>
+      <c r="H47">
+        <v>15</v>
+      </c>
+      <c r="I47">
+        <v>10121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>15131</v>
+      </c>
+      <c r="B48" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48">
+        <v>1013</v>
+      </c>
+      <c r="E48">
+        <v>5</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48" t="s">
+        <v>33</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <v>10121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>15132</v>
+      </c>
+      <c r="B49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49">
+        <v>1013</v>
+      </c>
+      <c r="E49">
+        <v>5</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49" t="s">
+        <v>33</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49">
+        <v>10111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>15141</v>
+      </c>
+      <c r="B51" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51">
+        <v>1013</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
+      </c>
+      <c r="F51">
+        <v>4</v>
+      </c>
+      <c r="G51" t="s">
+        <v>33</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51">
+        <v>10121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>15142</v>
+      </c>
+      <c r="B52" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52">
+        <v>1013</v>
+      </c>
+      <c r="E52">
+        <v>5</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52" t="s">
+        <v>33</v>
+      </c>
+      <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="I52">
+        <v>10111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>15143</v>
+      </c>
+      <c r="B53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53">
+        <v>1013</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+      <c r="G53" t="s">
+        <v>40</v>
+      </c>
+      <c r="H53">
+        <v>99999999</v>
+      </c>
+      <c r="I53">
+        <v>10135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>21111</v>
+      </c>
+      <c r="B58" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" t="s">
+        <v>95</v>
+      </c>
+      <c r="D58">
         <v>1011</v>
       </c>
-      <c r="E42">
+      <c r="E58">
+        <v>6</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
+        <v>33</v>
+      </c>
+      <c r="H58">
+        <v>6</v>
+      </c>
+      <c r="I58">
+        <v>10211</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>21112</v>
+      </c>
+      <c r="B59" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" t="s">
+        <v>97</v>
+      </c>
+      <c r="D59">
+        <v>1011</v>
+      </c>
+      <c r="E59">
+        <v>6</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
+        <v>33</v>
+      </c>
+      <c r="H59">
+        <v>7</v>
+      </c>
+      <c r="I59">
+        <v>10221</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>21121</v>
+      </c>
+      <c r="B60" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" t="s">
+        <v>99</v>
+      </c>
+      <c r="D60">
+        <v>1012</v>
+      </c>
+      <c r="E60">
+        <v>6</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60" t="s">
+        <v>33</v>
+      </c>
+      <c r="H60">
+        <v>10</v>
+      </c>
+      <c r="I60">
+        <v>10211</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>21122</v>
+      </c>
+      <c r="B61" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" t="s">
+        <v>101</v>
+      </c>
+      <c r="D61">
+        <v>1012</v>
+      </c>
+      <c r="E61">
+        <v>6</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61" t="s">
+        <v>33</v>
+      </c>
+      <c r="H61">
+        <v>15</v>
+      </c>
+      <c r="I61">
+        <v>10221</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>21131</v>
+      </c>
+      <c r="B62" t="s">
+        <v>102</v>
+      </c>
+      <c r="C62" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62">
+        <v>1013</v>
+      </c>
+      <c r="E62">
+        <v>6</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+      <c r="G62" t="s">
+        <v>33</v>
+      </c>
+      <c r="H62">
+        <v>5</v>
+      </c>
+      <c r="I62">
+        <v>10221</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>21132</v>
+      </c>
+      <c r="B63" t="s">
+        <v>104</v>
+      </c>
+      <c r="C63" t="s">
+        <v>105</v>
+      </c>
+      <c r="D63">
+        <v>1013</v>
+      </c>
+      <c r="E63">
+        <v>6</v>
+      </c>
+      <c r="F63">
+        <v>3</v>
+      </c>
+      <c r="G63" t="s">
+        <v>33</v>
+      </c>
+      <c r="H63">
+        <v>6</v>
+      </c>
+      <c r="I63">
+        <v>10211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>22111</v>
+      </c>
+      <c r="B67" t="s">
+        <v>106</v>
+      </c>
+      <c r="C67" t="s">
+        <v>107</v>
+      </c>
+      <c r="D67">
+        <v>1011</v>
+      </c>
+      <c r="E67">
+        <v>7</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" t="s">
+        <v>33</v>
+      </c>
+      <c r="H67">
+        <v>5</v>
+      </c>
+      <c r="I67">
+        <v>10211</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>22112</v>
+      </c>
+      <c r="B68" t="s">
+        <v>108</v>
+      </c>
+      <c r="C68" t="s">
+        <v>109</v>
+      </c>
+      <c r="D68">
+        <v>1011</v>
+      </c>
+      <c r="E68">
+        <v>7</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" t="s">
+        <v>33</v>
+      </c>
+      <c r="H68">
+        <v>6</v>
+      </c>
+      <c r="I68">
+        <v>10221</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>22121</v>
+      </c>
+      <c r="B69" t="s">
+        <v>110</v>
+      </c>
+      <c r="C69" t="s">
+        <v>111</v>
+      </c>
+      <c r="D69">
+        <v>1012</v>
+      </c>
+      <c r="E69">
+        <v>7</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69" t="s">
+        <v>33</v>
+      </c>
+      <c r="H69">
+        <v>10</v>
+      </c>
+      <c r="I69">
+        <v>10211</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>22122</v>
+      </c>
+      <c r="B70" t="s">
+        <v>112</v>
+      </c>
+      <c r="C70" t="s">
+        <v>113</v>
+      </c>
+      <c r="D70">
+        <v>1012</v>
+      </c>
+      <c r="E70">
+        <v>7</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70" t="s">
+        <v>33</v>
+      </c>
+      <c r="H70">
+        <v>15</v>
+      </c>
+      <c r="I70">
+        <v>10221</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>22131</v>
+      </c>
+      <c r="B71" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71" t="s">
+        <v>115</v>
+      </c>
+      <c r="D71">
+        <v>1013</v>
+      </c>
+      <c r="E71">
+        <v>7</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+      <c r="G71" t="s">
+        <v>33</v>
+      </c>
+      <c r="H71">
+        <v>3</v>
+      </c>
+      <c r="I71">
+        <v>10221</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>22132</v>
+      </c>
+      <c r="B72" t="s">
+        <v>116</v>
+      </c>
+      <c r="C72" t="s">
+        <v>117</v>
+      </c>
+      <c r="D72">
+        <v>1013</v>
+      </c>
+      <c r="E72">
+        <v>7</v>
+      </c>
+      <c r="F72">
+        <v>3</v>
+      </c>
+      <c r="G72" t="s">
+        <v>33</v>
+      </c>
+      <c r="H72">
+        <v>3</v>
+      </c>
+      <c r="I72">
+        <v>10211</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>23111</v>
+      </c>
+      <c r="B74" t="s">
+        <v>118</v>
+      </c>
+      <c r="C74" t="s">
+        <v>119</v>
+      </c>
+      <c r="D74">
+        <v>1011</v>
+      </c>
+      <c r="E74">
+        <v>8</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" t="s">
+        <v>33</v>
+      </c>
+      <c r="H74">
+        <v>6</v>
+      </c>
+      <c r="I74">
+        <v>10211</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>23112</v>
+      </c>
+      <c r="B75" t="s">
+        <v>120</v>
+      </c>
+      <c r="C75" t="s">
+        <v>121</v>
+      </c>
+      <c r="D75">
+        <v>1011</v>
+      </c>
+      <c r="E75">
+        <v>8</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" t="s">
+        <v>33</v>
+      </c>
+      <c r="H75">
+        <v>7</v>
+      </c>
+      <c r="I75">
+        <v>10221</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>23121</v>
+      </c>
+      <c r="B76" t="s">
+        <v>122</v>
+      </c>
+      <c r="C76" t="s">
+        <v>123</v>
+      </c>
+      <c r="D76">
+        <v>1012</v>
+      </c>
+      <c r="E76">
+        <v>8</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76" t="s">
+        <v>33</v>
+      </c>
+      <c r="H76">
+        <v>10</v>
+      </c>
+      <c r="I76">
+        <v>10211</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>23122</v>
+      </c>
+      <c r="B77" t="s">
+        <v>124</v>
+      </c>
+      <c r="C77" t="s">
+        <v>125</v>
+      </c>
+      <c r="D77">
+        <v>1012</v>
+      </c>
+      <c r="E77">
+        <v>8</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="G77" t="s">
+        <v>33</v>
+      </c>
+      <c r="H77">
+        <v>15</v>
+      </c>
+      <c r="I77">
+        <v>10221</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>23131</v>
+      </c>
+      <c r="B78" t="s">
+        <v>126</v>
+      </c>
+      <c r="C78" t="s">
+        <v>127</v>
+      </c>
+      <c r="D78">
+        <v>1013</v>
+      </c>
+      <c r="E78">
+        <v>8</v>
+      </c>
+      <c r="F78">
+        <v>3</v>
+      </c>
+      <c r="G78" t="s">
+        <v>33</v>
+      </c>
+      <c r="H78">
+        <v>5</v>
+      </c>
+      <c r="I78">
+        <v>10221</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>23132</v>
+      </c>
+      <c r="B79" t="s">
+        <v>128</v>
+      </c>
+      <c r="C79" t="s">
+        <v>129</v>
+      </c>
+      <c r="D79">
+        <v>1013</v>
+      </c>
+      <c r="E79">
+        <v>8</v>
+      </c>
+      <c r="F79">
+        <v>3</v>
+      </c>
+      <c r="G79" t="s">
+        <v>33</v>
+      </c>
+      <c r="H79">
+        <v>6</v>
+      </c>
+      <c r="I79">
+        <v>10211</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <v>24111</v>
+      </c>
+      <c r="B83" t="s">
+        <v>130</v>
+      </c>
+      <c r="C83" t="s">
+        <v>131</v>
+      </c>
+      <c r="D83">
+        <v>1011</v>
+      </c>
+      <c r="E83">
+        <v>9</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" t="s">
+        <v>33</v>
+      </c>
+      <c r="H83">
+        <v>5</v>
+      </c>
+      <c r="I83">
+        <v>10211</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A84">
+        <v>24112</v>
+      </c>
+      <c r="B84" t="s">
+        <v>132</v>
+      </c>
+      <c r="C84" t="s">
+        <v>133</v>
+      </c>
+      <c r="D84">
+        <v>1011</v>
+      </c>
+      <c r="E84">
+        <v>9</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" t="s">
+        <v>33</v>
+      </c>
+      <c r="H84">
+        <v>6</v>
+      </c>
+      <c r="I84">
+        <v>10221</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <v>24121</v>
+      </c>
+      <c r="B85" t="s">
+        <v>134</v>
+      </c>
+      <c r="C85" t="s">
+        <v>135</v>
+      </c>
+      <c r="D85">
+        <v>1012</v>
+      </c>
+      <c r="E85">
+        <v>9</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
+      </c>
+      <c r="G85" t="s">
+        <v>33</v>
+      </c>
+      <c r="H85">
+        <v>10</v>
+      </c>
+      <c r="I85">
+        <v>10211</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A86">
+        <v>24122</v>
+      </c>
+      <c r="B86" t="s">
+        <v>136</v>
+      </c>
+      <c r="C86" t="s">
+        <v>137</v>
+      </c>
+      <c r="D86">
+        <v>1012</v>
+      </c>
+      <c r="E86">
+        <v>9</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
+      </c>
+      <c r="G86" t="s">
+        <v>33</v>
+      </c>
+      <c r="H86">
+        <v>15</v>
+      </c>
+      <c r="I86">
+        <v>10221</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <v>24131</v>
+      </c>
+      <c r="B87" t="s">
+        <v>138</v>
+      </c>
+      <c r="C87" t="s">
+        <v>139</v>
+      </c>
+      <c r="D87">
+        <v>1013</v>
+      </c>
+      <c r="E87">
+        <v>9</v>
+      </c>
+      <c r="F87">
+        <v>3</v>
+      </c>
+      <c r="G87" t="s">
+        <v>33</v>
+      </c>
+      <c r="H87">
+        <v>3</v>
+      </c>
+      <c r="I87">
+        <v>10221</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A88">
+        <v>24132</v>
+      </c>
+      <c r="B88" t="s">
+        <v>140</v>
+      </c>
+      <c r="C88" t="s">
+        <v>141</v>
+      </c>
+      <c r="D88">
+        <v>1013</v>
+      </c>
+      <c r="E88">
+        <v>9</v>
+      </c>
+      <c r="F88">
+        <v>3</v>
+      </c>
+      <c r="G88" t="s">
+        <v>33</v>
+      </c>
+      <c r="H88">
+        <v>3</v>
+      </c>
+      <c r="I88">
+        <v>10211</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A91">
+        <v>25111</v>
+      </c>
+      <c r="B91" t="s">
+        <v>142</v>
+      </c>
+      <c r="C91" t="s">
+        <v>143</v>
+      </c>
+      <c r="D91">
+        <v>1011</v>
+      </c>
+      <c r="E91">
+        <v>10</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91" t="s">
+        <v>33</v>
+      </c>
+      <c r="H91">
+        <v>5</v>
+      </c>
+      <c r="I91">
+        <v>10211</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A92">
+        <v>25112</v>
+      </c>
+      <c r="B92" t="s">
+        <v>144</v>
+      </c>
+      <c r="C92" t="s">
+        <v>145</v>
+      </c>
+      <c r="D92">
+        <v>1011</v>
+      </c>
+      <c r="E92">
+        <v>10</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92" t="s">
+        <v>33</v>
+      </c>
+      <c r="H92">
+        <v>6</v>
+      </c>
+      <c r="I92">
+        <v>10221</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A93">
+        <v>25121</v>
+      </c>
+      <c r="B93" t="s">
+        <v>146</v>
+      </c>
+      <c r="C93" t="s">
+        <v>147</v>
+      </c>
+      <c r="D93">
+        <v>1012</v>
+      </c>
+      <c r="E93">
+        <v>10</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="G93" t="s">
+        <v>33</v>
+      </c>
+      <c r="H93">
+        <v>10</v>
+      </c>
+      <c r="I93">
+        <v>10211</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A94">
+        <v>25122</v>
+      </c>
+      <c r="B94" t="s">
+        <v>148</v>
+      </c>
+      <c r="C94" t="s">
+        <v>149</v>
+      </c>
+      <c r="D94">
+        <v>1012</v>
+      </c>
+      <c r="E94">
+        <v>10</v>
+      </c>
+      <c r="F94">
+        <v>2</v>
+      </c>
+      <c r="G94" t="s">
+        <v>33</v>
+      </c>
+      <c r="H94">
+        <v>15</v>
+      </c>
+      <c r="I94">
+        <v>10221</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A95">
+        <v>25131</v>
+      </c>
+      <c r="B95" t="s">
+        <v>150</v>
+      </c>
+      <c r="C95" t="s">
+        <v>151</v>
+      </c>
+      <c r="D95">
+        <v>1013</v>
+      </c>
+      <c r="E95">
+        <v>10</v>
+      </c>
+      <c r="F95">
+        <v>3</v>
+      </c>
+      <c r="G95" t="s">
+        <v>33</v>
+      </c>
+      <c r="H95">
+        <v>3</v>
+      </c>
+      <c r="I95">
+        <v>10221</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A96">
+        <v>25132</v>
+      </c>
+      <c r="B96" t="s">
+        <v>152</v>
+      </c>
+      <c r="C96" t="s">
+        <v>153</v>
+      </c>
+      <c r="D96">
+        <v>1013</v>
+      </c>
+      <c r="E96">
+        <v>10</v>
+      </c>
+      <c r="F96">
+        <v>3</v>
+      </c>
+      <c r="G96" t="s">
+        <v>33</v>
+      </c>
+      <c r="H96">
+        <v>3</v>
+      </c>
+      <c r="I96">
+        <v>10211</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A98">
+        <v>25141</v>
+      </c>
+      <c r="B98" t="s">
+        <v>154</v>
+      </c>
+      <c r="C98" t="s">
+        <v>155</v>
+      </c>
+      <c r="D98">
+        <v>1013</v>
+      </c>
+      <c r="E98">
+        <v>10</v>
+      </c>
+      <c r="F98">
         <v>4</v>
       </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42" t="s">
-        <v>33</v>
-      </c>
-      <c r="H42">
+      <c r="G98" t="s">
+        <v>33</v>
+      </c>
+      <c r="H98">
+        <v>3</v>
+      </c>
+      <c r="I98">
+        <v>10221</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A99">
+        <v>25142</v>
+      </c>
+      <c r="B99" t="s">
+        <v>156</v>
+      </c>
+      <c r="C99" t="s">
+        <v>157</v>
+      </c>
+      <c r="D99">
+        <v>1013</v>
+      </c>
+      <c r="E99">
         <v>10</v>
       </c>
-      <c r="I42">
-        <v>10022</v>
-      </c>
-      <c r="J42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>40121</v>
-      </c>
-      <c r="B43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" t="s">
-        <v>35</v>
-      </c>
-      <c r="D43">
-        <v>1012</v>
-      </c>
-      <c r="E43">
+      <c r="F99">
         <v>4</v>
       </c>
-      <c r="F43">
-        <v>2</v>
-      </c>
-      <c r="G43" t="s">
-        <v>33</v>
-      </c>
-      <c r="H43">
+      <c r="G99" t="s">
+        <v>33</v>
+      </c>
+      <c r="H99">
+        <v>3</v>
+      </c>
+      <c r="I99">
+        <v>10211</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A100">
+        <v>25143</v>
+      </c>
+      <c r="B100" t="s">
+        <v>158</v>
+      </c>
+      <c r="C100" t="s">
+        <v>159</v>
+      </c>
+      <c r="D100">
+        <v>1013</v>
+      </c>
+      <c r="E100">
         <v>10</v>
       </c>
-      <c r="I43">
-        <v>10021</v>
-      </c>
-      <c r="J43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>40122</v>
-      </c>
-      <c r="B44" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44">
-        <v>1012</v>
-      </c>
-      <c r="E44">
+      <c r="F100">
         <v>4</v>
       </c>
-      <c r="F44">
-        <v>2</v>
-      </c>
-      <c r="G44" t="s">
-        <v>33</v>
-      </c>
-      <c r="H44">
-        <v>15</v>
-      </c>
-      <c r="I44">
-        <v>10022</v>
-      </c>
-      <c r="J44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>40131</v>
-      </c>
-      <c r="B45" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" t="s">
-        <v>38</v>
-      </c>
-      <c r="D45">
+      <c r="G100" t="s">
+        <v>40</v>
+      </c>
+      <c r="H100">
+        <v>99999999</v>
+      </c>
+      <c r="I100">
+        <v>10235</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A101">
+        <v>25142</v>
+      </c>
+      <c r="B101" t="s">
+        <v>156</v>
+      </c>
+      <c r="C101" t="s">
+        <v>157</v>
+      </c>
+      <c r="D101">
         <v>1013</v>
       </c>
-      <c r="E45">
+      <c r="E101">
+        <v>10</v>
+      </c>
+      <c r="F101">
         <v>4</v>
       </c>
-      <c r="F45">
-        <v>3</v>
-      </c>
-      <c r="G45" t="s">
-        <v>33</v>
-      </c>
-      <c r="H45">
-        <v>3</v>
-      </c>
-      <c r="I45">
-        <v>10022</v>
-      </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>40132</v>
-      </c>
-      <c r="B46" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="G101" t="s">
+        <v>33</v>
+      </c>
+      <c r="H101">
+        <v>3</v>
+      </c>
+      <c r="I101">
+        <v>20052</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A102">
+        <v>25143</v>
+      </c>
+      <c r="B102" t="s">
+        <v>158</v>
+      </c>
+      <c r="C102" t="s">
+        <v>159</v>
+      </c>
+      <c r="D102">
+        <v>1013</v>
+      </c>
+      <c r="E102">
+        <v>10</v>
+      </c>
+      <c r="F102">
+        <v>4</v>
+      </c>
+      <c r="G102" t="s">
         <v>40</v>
       </c>
-      <c r="D46">
-        <v>1013</v>
-      </c>
-      <c r="E46">
-        <v>4</v>
-      </c>
-      <c r="F46">
-        <v>3</v>
-      </c>
-      <c r="G46" t="s">
-        <v>33</v>
-      </c>
-      <c r="H46">
-        <v>3</v>
-      </c>
-      <c r="I46">
-        <v>10021</v>
-      </c>
-      <c r="J46">
-        <v>1</v>
+      <c r="H102">
+        <v>99999999</v>
+      </c>
+      <c r="I102">
+        <v>20053</v>
       </c>
     </row>
   </sheetData>
